--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lrpap1-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lrpap1-Lrp1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.863513333333333</v>
+        <v>5.404689</v>
       </c>
       <c r="H2">
-        <v>23.59054</v>
+        <v>16.214067</v>
       </c>
       <c r="I2">
-        <v>0.1316713470554304</v>
+        <v>0.08747859311663772</v>
       </c>
       <c r="J2">
-        <v>0.1376659241260802</v>
+        <v>0.09021076583983562</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N2">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O2">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P2">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q2">
-        <v>31.03472886366222</v>
+        <v>15.710600402457</v>
       </c>
       <c r="R2">
-        <v>279.31255977296</v>
+        <v>141.395403622113</v>
       </c>
       <c r="S2">
-        <v>0.001064205728535732</v>
+        <v>0.000482927824828285</v>
       </c>
       <c r="T2">
-        <v>0.001145061589413277</v>
+        <v>0.0005073941372713168</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.863513333333333</v>
+        <v>5.404689</v>
       </c>
       <c r="H3">
-        <v>23.59054</v>
+        <v>16.214067</v>
       </c>
       <c r="I3">
-        <v>0.1316713470554304</v>
+        <v>0.08747859311663772</v>
       </c>
       <c r="J3">
-        <v>0.1376659241260802</v>
+        <v>0.09021076583983562</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>557.408233</v>
       </c>
       <c r="O3">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P3">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q3">
-        <v>1461.062357435091</v>
+        <v>1004.206048468179</v>
       </c>
       <c r="R3">
-        <v>13149.56121691582</v>
+        <v>9037.854436213611</v>
       </c>
       <c r="S3">
-        <v>0.05010099934692532</v>
+        <v>0.03086826920951422</v>
       </c>
       <c r="T3">
-        <v>0.05390755603460148</v>
+        <v>0.03243213171696888</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.863513333333333</v>
+        <v>5.404689</v>
       </c>
       <c r="H4">
-        <v>23.59054</v>
+        <v>16.214067</v>
       </c>
       <c r="I4">
-        <v>0.1316713470554304</v>
+        <v>0.08747859311663772</v>
       </c>
       <c r="J4">
-        <v>0.1376659241260802</v>
+        <v>0.09021076583983562</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N4">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O4">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P4">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q4">
-        <v>922.7001277708245</v>
+        <v>740.8299560419379</v>
       </c>
       <c r="R4">
-        <v>8304.301149937419</v>
+        <v>6667.469604377441</v>
       </c>
       <c r="S4">
-        <v>0.03164012696898717</v>
+        <v>0.02277235688478306</v>
       </c>
       <c r="T4">
-        <v>0.03404406977417419</v>
+        <v>0.02392606054392805</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.863513333333333</v>
+        <v>5.404689</v>
       </c>
       <c r="H5">
-        <v>23.59054</v>
+        <v>16.214067</v>
       </c>
       <c r="I5">
-        <v>0.1316713470554304</v>
+        <v>0.08747859311663772</v>
       </c>
       <c r="J5">
-        <v>0.1376659241260802</v>
+        <v>0.09021076583983562</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N5">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O5">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P5">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q5">
-        <v>326.0100494299866</v>
+        <v>157.8857556214485</v>
       </c>
       <c r="R5">
-        <v>1956.06029657992</v>
+        <v>947.3145337286909</v>
       </c>
       <c r="S5">
-        <v>0.01117914590740422</v>
+        <v>0.004853247016690201</v>
       </c>
       <c r="T5">
-        <v>0.008019007501884789</v>
+        <v>0.003399416305288424</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.863513333333333</v>
+        <v>5.404689</v>
       </c>
       <c r="H6">
-        <v>23.59054</v>
+        <v>16.214067</v>
       </c>
       <c r="I6">
-        <v>0.1316713470554304</v>
+        <v>0.08747859311663772</v>
       </c>
       <c r="J6">
-        <v>0.1376659241260802</v>
+        <v>0.09021076583983562</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N6">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O6">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P6">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q6">
-        <v>1099.037275395198</v>
+        <v>927.2198549876159</v>
       </c>
       <c r="R6">
-        <v>9891.335478556779</v>
+        <v>8344.978694888543</v>
       </c>
       <c r="S6">
-        <v>0.03768686910357801</v>
+        <v>0.02850179218082196</v>
       </c>
       <c r="T6">
-        <v>0.04055022922600648</v>
+        <v>0.02994576313637893</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>45.389333</v>
       </c>
       <c r="I7">
-        <v>0.2533420014148681</v>
+        <v>0.2448858138641327</v>
       </c>
       <c r="J7">
-        <v>0.2648758558689792</v>
+        <v>0.2525342032254661</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N7">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O7">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P7">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q7">
-        <v>59.71231022933245</v>
+        <v>43.97993873449855</v>
       </c>
       <c r="R7">
-        <v>537.4107920639919</v>
+        <v>395.819448610487</v>
       </c>
       <c r="S7">
-        <v>0.002047582980000286</v>
+        <v>0.001351898438318819</v>
       </c>
       <c r="T7">
-        <v>0.002203153543216413</v>
+        <v>0.00142038894121108</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>45.389333</v>
       </c>
       <c r="I8">
-        <v>0.2533420014148681</v>
+        <v>0.2448858138641327</v>
       </c>
       <c r="J8">
-        <v>0.2648758558689792</v>
+        <v>0.2525342032254661</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>557.408233</v>
       </c>
       <c r="O8">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P8">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q8">
         <v>2811.154211619843</v>
@@ -948,10 +948,10 @@
         <v>25300.38790457859</v>
       </c>
       <c r="S8">
-        <v>0.09639673118929774</v>
+        <v>0.08641201188352604</v>
       </c>
       <c r="T8">
-        <v>0.1037207292444635</v>
+        <v>0.09078985712846521</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>45.389333</v>
       </c>
       <c r="I9">
-        <v>0.2533420014148681</v>
+        <v>0.2448858138641327</v>
       </c>
       <c r="J9">
-        <v>0.2648758558689792</v>
+        <v>0.2525342032254661</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N9">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O9">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P9">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q9">
-        <v>1775.31940169799</v>
+        <v>2073.864476516773</v>
       </c>
       <c r="R9">
-        <v>15977.87461528191</v>
+        <v>18664.78028865096</v>
       </c>
       <c r="S9">
-        <v>0.06087712528656145</v>
+        <v>0.0637484777778617</v>
       </c>
       <c r="T9">
-        <v>0.06550242680562747</v>
+        <v>0.06697813259353817</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>45.389333</v>
       </c>
       <c r="I10">
-        <v>0.2533420014148681</v>
+        <v>0.2448858138641327</v>
       </c>
       <c r="J10">
-        <v>0.2648758558689792</v>
+        <v>0.2525342032254661</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N10">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O10">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P10">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q10">
-        <v>627.2590069970473</v>
+        <v>441.9822082799182</v>
       </c>
       <c r="R10">
-        <v>3763.554041982284</v>
+        <v>2651.893249679509</v>
       </c>
       <c r="S10">
-        <v>0.02150921412764427</v>
+        <v>0.01358608207131549</v>
       </c>
       <c r="T10">
-        <v>0.01542895592184608</v>
+        <v>0.00951625762286328</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>45.389333</v>
       </c>
       <c r="I11">
-        <v>0.2533420014148681</v>
+        <v>0.2448858138641327</v>
       </c>
       <c r="J11">
-        <v>0.2648758558689792</v>
+        <v>0.2525342032254661</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N11">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O11">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P11">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q11">
-        <v>2114.600550573465</v>
+        <v>2595.640610233362</v>
       </c>
       <c r="R11">
-        <v>19031.40495516118</v>
+        <v>23360.76549210025</v>
       </c>
       <c r="S11">
-        <v>0.07251134783136434</v>
+        <v>0.07978734369311069</v>
       </c>
       <c r="T11">
-        <v>0.07802059035382576</v>
+        <v>0.08382956693938835</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>14.38236133333333</v>
+        <v>17.564497</v>
       </c>
       <c r="H12">
-        <v>43.147084</v>
+        <v>52.69349099999999</v>
       </c>
       <c r="I12">
-        <v>0.2408268175206591</v>
+        <v>0.2842934138044583</v>
       </c>
       <c r="J12">
-        <v>0.2517908955117437</v>
+        <v>0.2931725999334087</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N12">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O12">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P12">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q12">
-        <v>56.76250112111289</v>
+        <v>51.05729370129432</v>
       </c>
       <c r="R12">
-        <v>510.862510090016</v>
+        <v>459.5156433116489</v>
       </c>
       <c r="S12">
-        <v>0.001946431661268137</v>
+        <v>0.001569449108063931</v>
       </c>
       <c r="T12">
-        <v>0.002094316983993931</v>
+        <v>0.001648961263436181</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>14.38236133333333</v>
+        <v>17.564497</v>
       </c>
       <c r="H13">
-        <v>43.147084</v>
+        <v>52.69349099999999</v>
       </c>
       <c r="I13">
-        <v>0.2408268175206591</v>
+        <v>0.2842934138044583</v>
       </c>
       <c r="J13">
-        <v>0.2517908955117437</v>
+        <v>0.2931725999334087</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>557.408233</v>
       </c>
       <c r="O13">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P13">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q13">
-        <v>2672.282205726952</v>
+        <v>3263.5317454346</v>
       </c>
       <c r="R13">
-        <v>24050.53985154257</v>
+        <v>29371.7857089114</v>
       </c>
       <c r="S13">
-        <v>0.09163469879475976</v>
+        <v>0.1003176356540968</v>
       </c>
       <c r="T13">
-        <v>0.09859688877234929</v>
+        <v>0.1053999740311246</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>14.38236133333333</v>
+        <v>17.564497</v>
       </c>
       <c r="H14">
-        <v>43.147084</v>
+        <v>52.69349099999999</v>
       </c>
       <c r="I14">
-        <v>0.2408268175206591</v>
+        <v>0.2842934138044583</v>
       </c>
       <c r="J14">
-        <v>0.2517908955117437</v>
+        <v>0.2931725999334087</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N14">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O14">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P14">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q14">
-        <v>1687.617999407326</v>
+        <v>2407.59561566054</v>
       </c>
       <c r="R14">
-        <v>15188.56199466593</v>
+        <v>21668.36054094486</v>
       </c>
       <c r="S14">
-        <v>0.05786977390519906</v>
+        <v>0.07400703244640003</v>
       </c>
       <c r="T14">
-        <v>0.06226658390389345</v>
+        <v>0.07775641089536189</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>14.38236133333333</v>
+        <v>17.564497</v>
       </c>
       <c r="H15">
-        <v>43.147084</v>
+        <v>52.69349099999999</v>
       </c>
       <c r="I15">
-        <v>0.2408268175206591</v>
+        <v>0.2842934138044583</v>
       </c>
       <c r="J15">
-        <v>0.2517908955117437</v>
+        <v>0.2931725999334087</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N15">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O15">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P15">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q15">
-        <v>596.2721916327387</v>
+        <v>513.1070226160405</v>
       </c>
       <c r="R15">
-        <v>3577.633149796432</v>
+        <v>3078.642135696242</v>
       </c>
       <c r="S15">
-        <v>0.0204466513914063</v>
+        <v>0.01577238628622553</v>
       </c>
       <c r="T15">
-        <v>0.01466676007757572</v>
+        <v>0.01104763613521326</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>14.38236133333333</v>
+        <v>17.564497</v>
       </c>
       <c r="H16">
-        <v>43.147084</v>
+        <v>52.69349099999999</v>
       </c>
       <c r="I16">
-        <v>0.2408268175206591</v>
+        <v>0.2842934138044583</v>
       </c>
       <c r="J16">
-        <v>0.2517908955117437</v>
+        <v>0.2931725999334087</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N16">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O16">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P16">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q16">
-        <v>2010.138540305043</v>
+        <v>3013.337189479434</v>
       </c>
       <c r="R16">
-        <v>18091.24686274539</v>
+        <v>27120.03470531491</v>
       </c>
       <c r="S16">
-        <v>0.06892926176802587</v>
+        <v>0.09262691030967198</v>
       </c>
       <c r="T16">
-        <v>0.07416634577393127</v>
+        <v>0.09731961760827278</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.8015105</v>
+        <v>5.613580499999999</v>
       </c>
       <c r="H17">
-        <v>15.603021</v>
+        <v>11.227161</v>
       </c>
       <c r="I17">
-        <v>0.1306331347144344</v>
+        <v>0.09085964511315853</v>
       </c>
       <c r="J17">
-        <v>0.0910536301892045</v>
+        <v>0.06246494429911598</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N17">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O17">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P17">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q17">
-        <v>30.790023852084</v>
+        <v>16.31781589329649</v>
       </c>
       <c r="R17">
-        <v>184.740143112504</v>
+        <v>97.90689535977897</v>
       </c>
       <c r="S17">
-        <v>0.001055814597546092</v>
+        <v>0.0005015930093967434</v>
       </c>
       <c r="T17">
-        <v>0.0007573552799515714</v>
+        <v>0.0003513366306924212</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7.8015105</v>
+        <v>5.613580499999999</v>
       </c>
       <c r="H18">
-        <v>15.603021</v>
+        <v>11.227161</v>
       </c>
       <c r="I18">
-        <v>0.1306331347144344</v>
+        <v>0.09085964511315853</v>
       </c>
       <c r="J18">
-        <v>0.0910536301892045</v>
+        <v>0.06246494429911598</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>557.408233</v>
       </c>
       <c r="O18">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P18">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q18">
-        <v>1449.542060845316</v>
+        <v>1043.018662436085</v>
       </c>
       <c r="R18">
-        <v>8697.252365071892</v>
+        <v>6258.111974616512</v>
       </c>
       <c r="S18">
-        <v>0.04970595914280018</v>
+        <v>0.03206132935739307</v>
       </c>
       <c r="T18">
-        <v>0.03565500106680744</v>
+        <v>0.0224570901526197</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>7.8015105</v>
+        <v>5.613580499999999</v>
       </c>
       <c r="H19">
-        <v>15.603021</v>
+        <v>11.227161</v>
       </c>
       <c r="I19">
-        <v>0.1306331347144344</v>
+        <v>0.09085964511315853</v>
       </c>
       <c r="J19">
-        <v>0.0910536301892045</v>
+        <v>0.06246494429911598</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N19">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O19">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P19">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q19">
-        <v>915.4247510004556</v>
+        <v>769.4630708728807</v>
       </c>
       <c r="R19">
-        <v>5492.548506002733</v>
+        <v>4616.778425237285</v>
       </c>
       <c r="S19">
-        <v>0.03139064846797317</v>
+        <v>0.02365250961664194</v>
       </c>
       <c r="T19">
-        <v>0.02251709098697635</v>
+        <v>0.01656720265325336</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>7.8015105</v>
+        <v>5.613580499999999</v>
       </c>
       <c r="H20">
-        <v>15.603021</v>
+        <v>11.227161</v>
       </c>
       <c r="I20">
-        <v>0.1306331347144344</v>
+        <v>0.09085964511315853</v>
       </c>
       <c r="J20">
-        <v>0.0910536301892045</v>
+        <v>0.06246494429911598</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N20">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O20">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P20">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q20">
-        <v>323.439500376027</v>
+        <v>163.9880479680382</v>
       </c>
       <c r="R20">
-        <v>1293.758001504108</v>
+        <v>655.9521918721529</v>
       </c>
       <c r="S20">
-        <v>0.01109099971992748</v>
+        <v>0.005040825256471794</v>
       </c>
       <c r="T20">
-        <v>0.005303852410799664</v>
+        <v>0.002353869276937013</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>7.8015105</v>
+        <v>5.613580499999999</v>
       </c>
       <c r="H21">
-        <v>15.603021</v>
+        <v>11.227161</v>
       </c>
       <c r="I21">
-        <v>0.1306331347144344</v>
+        <v>0.09085964511315853</v>
       </c>
       <c r="J21">
-        <v>0.0910536301892045</v>
+        <v>0.06246494429911598</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N21">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O21">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P21">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q21">
-        <v>1090.371501952099</v>
+        <v>963.0569487293918</v>
       </c>
       <c r="R21">
-        <v>6542.229011712598</v>
+        <v>5778.341692376351</v>
       </c>
       <c r="S21">
-        <v>0.03738971278618753</v>
+        <v>0.02960338787325498</v>
       </c>
       <c r="T21">
-        <v>0.02682033044466947</v>
+        <v>0.02073544558561348</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>14.54360033333333</v>
+        <v>18.07044533333334</v>
       </c>
       <c r="H22">
-        <v>43.630801</v>
+        <v>54.211336</v>
       </c>
       <c r="I22">
-        <v>0.243526699294608</v>
+        <v>0.2924825341016128</v>
       </c>
       <c r="J22">
-        <v>0.2546136943039924</v>
+        <v>0.3016174867021735</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N22">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O22">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P22">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q22">
-        <v>57.39885899769155</v>
+        <v>52.52800775890044</v>
       </c>
       <c r="R22">
-        <v>516.589730979224</v>
+        <v>472.7520698301039</v>
       </c>
       <c r="S22">
-        <v>0.001968252882926908</v>
+        <v>0.001614657357436311</v>
       </c>
       <c r="T22">
-        <v>0.002117796131009905</v>
+        <v>0.001696459874012207</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>14.54360033333333</v>
+        <v>18.07044533333334</v>
       </c>
       <c r="H23">
-        <v>43.630801</v>
+        <v>54.211336</v>
       </c>
       <c r="I23">
-        <v>0.243526699294608</v>
+        <v>0.2924825341016128</v>
       </c>
       <c r="J23">
-        <v>0.2546136943039924</v>
+        <v>0.3016174867021735</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>557.408233</v>
       </c>
       <c r="O23">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P23">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q23">
-        <v>2702.240854420515</v>
+        <v>3357.53833425881</v>
       </c>
       <c r="R23">
-        <v>24320.16768978463</v>
+        <v>30217.84500832929</v>
       </c>
       <c r="S23">
-        <v>0.09266200487173369</v>
+        <v>0.1032073022675575</v>
       </c>
       <c r="T23">
-        <v>0.09970224716102498</v>
+        <v>0.1084360382687981</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>14.54360033333333</v>
+        <v>18.07044533333334</v>
       </c>
       <c r="H24">
-        <v>43.630801</v>
+        <v>54.211336</v>
       </c>
       <c r="I24">
-        <v>0.243526699294608</v>
+        <v>0.2924825341016128</v>
       </c>
       <c r="J24">
-        <v>0.2546136943039924</v>
+        <v>0.3016174867021735</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N24">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O24">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P24">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q24">
-        <v>1706.537690847408</v>
+        <v>2476.946818207593</v>
       </c>
       <c r="R24">
-        <v>15358.83921762667</v>
+        <v>22292.52136386833</v>
       </c>
       <c r="S24">
-        <v>0.05851854528970563</v>
+        <v>0.07613881764475794</v>
       </c>
       <c r="T24">
-        <v>0.06296464741998738</v>
+        <v>0.0799961975797452</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>14.54360033333333</v>
+        <v>18.07044533333334</v>
       </c>
       <c r="H25">
-        <v>43.630801</v>
+        <v>54.211336</v>
       </c>
       <c r="I25">
-        <v>0.243526699294608</v>
+        <v>0.2924825341016128</v>
       </c>
       <c r="J25">
-        <v>0.2546136943039924</v>
+        <v>0.3016174867021735</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N25">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O25">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P25">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q25">
-        <v>602.9569306459246</v>
+        <v>527.8871579603214</v>
       </c>
       <c r="R25">
-        <v>3617.741583875548</v>
+        <v>3167.322947761928</v>
       </c>
       <c r="S25">
-        <v>0.02067587645030244</v>
+        <v>0.01622671256463848</v>
       </c>
       <c r="T25">
-        <v>0.0148311874392126</v>
+        <v>0.01136586517928348</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>14.54360033333333</v>
+        <v>18.07044533333334</v>
       </c>
       <c r="H26">
-        <v>43.630801</v>
+        <v>54.211336</v>
       </c>
       <c r="I26">
-        <v>0.243526699294608</v>
+        <v>0.2924825341016128</v>
       </c>
       <c r="J26">
-        <v>0.2546136943039924</v>
+        <v>0.3016174867021735</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N26">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O26">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P26">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q26">
-        <v>2032.673972463117</v>
+        <v>3100.13688142555</v>
       </c>
       <c r="R26">
-        <v>18294.06575216806</v>
+        <v>27901.23193282995</v>
       </c>
       <c r="S26">
-        <v>0.06970201979993931</v>
+        <v>0.09529504426722253</v>
       </c>
       <c r="T26">
-        <v>0.07499781615275755</v>
+        <v>0.1001229258003345</v>
       </c>
     </row>
   </sheetData>
